--- a/Plan/TO-DOs.xlsx
+++ b/Plan/TO-DOs.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$16</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Accommodate for option type and strike price along with symbol in option price capture component</t>
   </si>
@@ -423,11 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15"/>
@@ -457,7 +456,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45">
@@ -468,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
@@ -482,13 +484,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="150" hidden="1">
+    <row r="6" spans="1:4" ht="150">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -502,7 +504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -513,7 +515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -524,7 +526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -535,7 +537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -554,13 +556,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -571,7 +573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -596,7 +598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" hidden="1">
+    <row r="15" spans="1:4" ht="30">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -619,13 +621,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D15">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:D16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Plan/TO-DOs.xlsx
+++ b/Plan/TO-DOs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Accommodate for option type and strike price along with symbol in option price capture component</t>
   </si>
@@ -89,6 +89,11 @@
   </si>
   <si>
     <t>To be done later as round_price_value function also checks for negative prices</t>
+  </si>
+  <si>
+    <t>target instance type combination - 1. 2 to 3 t1.micro instances
+2. 1 t1 micro and 1 t1. medium or t1.small as required. -
+THERE IS NO PROBLEM WITH THE COST</t>
   </si>
 </sst>
 </file>
@@ -423,10 +428,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15"/>
@@ -448,7 +454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60">
+    <row r="3" spans="1:4" ht="60" hidden="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,7 +468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45">
+    <row r="4" spans="1:4" ht="45" hidden="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -476,7 +482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45">
+    <row r="5" spans="1:4" ht="45" hidden="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -504,7 +510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="90">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -514,8 +520,11 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -548,7 +557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30">
+    <row r="11" spans="1:4" ht="30" hidden="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -562,7 +571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -570,10 +579,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -581,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" hidden="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -592,7 +601,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -621,7 +630,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D16"/>
+  <autoFilter ref="A2:D16">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Plan/TO-DOs.xlsx
+++ b/Plan/TO-DOs.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$19</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Accommodate for option type and strike price along with symbol in option price capture component</t>
   </si>
@@ -94,6 +94,36 @@
     <t>target instance type combination - 1. 2 to 3 t1.micro instances
 2. 1 t1 micro and 1 t1. medium or t1.small as required. -
 THERE IS NO PROBLEM WITH THE COST</t>
+  </si>
+  <si>
+    <t>WRITE LOGIC FOR CLOSING UNCLOSED ORDERS AT 3.25 P.M</t>
+  </si>
+  <si>
+    <t>WRITE LOGIC TO SELL MARKET ORDERS AT BID PRICE</t>
+  </si>
+  <si>
+    <t>WRITE LOGIC FOR CLOSING UNCLOSED BUY ORDERS AT 2.45</t>
+  </si>
+  <si>
+    <t>WRITE LOGIC TO CANCEL ORDERS AT 2.45</t>
+  </si>
+  <si>
+    <t>CHECK ZERODHA API IF THEY PROVIDE BID PRICES. THEN TRY TO SELL ONLY IF MINIMUM LOSS BID IS AVAILABLE</t>
+  </si>
+  <si>
+    <t>1. Check 1st bid price. If &gt;= than 99 % of last price - and quantity greater than order quantity,it is ok to sellin market. If quantity less than order quantity, then check if 2nd bid price satisfies the quantity and 2nd bid price &gt;= 98 % of last price, then place at market order.
+SET ORDER EVENT AS HANDLED.
+2. If 1. fails, then if 
+2.1 If 1st offer price &gt;  than last price, place order at 1st offer price.
+2.2 If 1st offer price &gt;= 99% of last price, then place at 1st offer.
+2.3. If 2nd offer &gt;= 99 % of last price, place order at 2nd offer. 
+SET ORDER EVENT AS NOT HANDLED. IT NEEDS TO BE CHECKED IN EACH CYCLE AND APPROPRIATE ADJUSTMENTS TO BE MADE.</t>
+  </si>
+  <si>
+    <t>TBD with Parveen</t>
+  </si>
+  <si>
+    <t>MAKE ORDER SELL PRICE AT 0.SELL IN MARKET</t>
   </si>
 </sst>
 </file>
@@ -429,15 +459,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:D16"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="30.85546875" style="1"/>
+    <col min="1" max="4" width="30.85546875" style="1"/>
+    <col min="5" max="5" width="57" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="30.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -496,7 +528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="150">
+    <row r="6" spans="1:4" ht="150" hidden="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -510,7 +542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="90">
+    <row r="7" spans="1:4" ht="90" hidden="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -535,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -546,7 +578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -615,10 +647,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" hidden="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -626,15 +658,65 @@
         <v>20</v>
       </c>
       <c r="C16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
         <v>1</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="240">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D16">
+  <autoFilter ref="A2:D19">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
-        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Plan/TO-DOs.xlsx
+++ b/Plan/TO-DOs.xlsx
@@ -461,8 +461,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15"/>
@@ -700,7 +700,7 @@
     </row>
     <row r="19" spans="1:6" ht="30">
       <c r="A19" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>25</v>

--- a/Plan/TO-DOs.xlsx
+++ b/Plan/TO-DOs.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$20</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Accommodate for option type and strike price along with symbol in option price capture component</t>
   </si>
@@ -111,19 +111,19 @@
     <t>CHECK ZERODHA API IF THEY PROVIDE BID PRICES. THEN TRY TO SELL ONLY IF MINIMUM LOSS BID IS AVAILABLE</t>
   </si>
   <si>
-    <t>1. Check 1st bid price. If &gt;= than 99 % of last price - and quantity greater than order quantity,it is ok to sellin market. If quantity less than order quantity, then check if 2nd bid price satisfies the quantity and 2nd bid price &gt;= 98 % of last price, then place at market order.
-SET ORDER EVENT AS HANDLED.
-2. If 1. fails, then if 
-2.1 If 1st offer price &gt;  than last price, place order at 1st offer price.
-2.2 If 1st offer price &gt;= 99% of last price, then place at 1st offer.
-2.3. If 2nd offer &gt;= 99 % of last price, place order at 2nd offer. 
-SET ORDER EVENT AS NOT HANDLED. IT NEEDS TO BE CHECKED IN EACH CYCLE AND APPROPRIATE ADJUSTMENTS TO BE MADE.</t>
-  </si>
-  <si>
     <t>TBD with Parveen</t>
   </si>
   <si>
     <t>MAKE ORDER SELL PRICE AT 0.SELL IN MARKET</t>
+  </si>
+  <si>
+    <t>Get Webview Working</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>add Expiry date to instruments</t>
   </si>
 </sst>
 </file>
@@ -459,10 +459,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15"/>
@@ -536,13 +536,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="90" hidden="1">
+    <row r="7" spans="1:4" ht="90">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -567,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -578,7 +578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -672,13 +672,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="240">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" hidden="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -686,19 +686,19 @@
         <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30">
+    </row>
+    <row r="19" spans="1:6" ht="30" hidden="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -706,17 +706,43 @@
         <v>25</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D19">
+  <autoFilter ref="A2:D20">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Plan/TO-DOs.xlsx
+++ b/Plan/TO-DOs.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$21</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Accommodate for option type and strike price along with symbol in option price capture component</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>UI to fill EOD data Output to basis_for_calls and selected_instrument table</t>
-  </si>
-  <si>
-    <t>Excel Import will also do</t>
   </si>
   <si>
     <t>1. Remove Unwanted variables
@@ -124,6 +121,21 @@
   </si>
   <si>
     <t>add Expiry date to instruments</t>
+  </si>
+  <si>
+    <t>Cancel Flow remaining</t>
+  </si>
+  <si>
+    <t>Excel Import to be done</t>
+  </si>
+  <si>
+    <t>Check with Parveen if UI required</t>
+  </si>
+  <si>
+    <t>Testing Pending in live environment</t>
+  </si>
+  <si>
+    <t>Done for now</t>
   </si>
 </sst>
 </file>
@@ -461,8 +473,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15"/>
@@ -472,7 +484,7 @@
     <col min="6" max="16384" width="30.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -486,7 +498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" hidden="1">
+    <row r="3" spans="1:5" ht="60" hidden="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -497,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -508,13 +520,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" hidden="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" hidden="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -525,10 +537,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="150" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="150" hidden="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -539,10 +551,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="90">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -550,13 +562,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -567,7 +579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -575,10 +587,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -586,10 +601,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" hidden="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" hidden="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -600,10 +618,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -614,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -622,10 +640,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" hidden="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -633,32 +654,44 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" hidden="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" hidden="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" hidden="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
@@ -666,16 +699,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" hidden="1">
@@ -683,19 +716,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" hidden="1">
@@ -703,42 +736,45 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D20">
+  <autoFilter ref="A2:D21">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>

--- a/Plan/TO-DOs.xlsx
+++ b/Plan/TO-DOs.xlsx
@@ -470,11 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15"/>
@@ -498,7 +497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" hidden="1">
+    <row r="3" spans="1:5" ht="60">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -526,7 +525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" hidden="1">
+    <row r="5" spans="1:5" ht="45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -540,7 +539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="150" hidden="1">
+    <row r="6" spans="1:5" ht="150">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -568,7 +567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -579,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -593,7 +592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -607,7 +606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" hidden="1">
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -621,7 +620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -663,7 +662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" hidden="1">
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -680,7 +679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" hidden="1">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -711,7 +710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="60" hidden="1">
+    <row r="18" spans="1:6" ht="60">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -731,7 +730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" hidden="1">
+    <row r="19" spans="1:6" ht="30">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -748,7 +747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -759,7 +758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -775,12 +774,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:D21">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="1"/>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="2"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Plan/TO-DOs.xlsx
+++ b/Plan/TO-DOs.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$23</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Accommodate for option type and strike price along with symbol in option price capture component</t>
   </si>
@@ -136,6 +136,20 @@
   </si>
   <si>
     <t>Done for now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change buy and sell order factor - calculate factor from dummy option price calculation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONITOR - Check if option prices data saving pauses - aim for single websocket and worker threads to extract data
+</t>
+  </si>
+  <si>
+    <t>Capture High Price in option price data</t>
+  </si>
+  <si>
+    <t>Limit Buy order price to 75 % of high price</t>
   </si>
 </sst>
 </file>
@@ -470,10 +484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F21"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15"/>
@@ -497,7 +512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60">
+    <row r="3" spans="1:5" ht="60" hidden="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -511,7 +526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45">
+    <row r="4" spans="1:5" ht="45" hidden="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -519,13 +534,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45">
+    <row r="5" spans="1:5" ht="45" hidden="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -539,7 +554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="150">
+    <row r="6" spans="1:5" ht="150" hidden="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -547,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -561,13 +576,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -578,7 +593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -592,7 +607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -606,7 +621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30">
+    <row r="11" spans="1:5" ht="30" hidden="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -628,10 +643,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" hidden="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -639,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45">
+    <row r="14" spans="1:5" ht="45" hidden="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -653,7 +668,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>33</v>
@@ -662,7 +677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30">
+    <row r="15" spans="1:5" ht="30" hidden="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -679,7 +694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5" ht="30" hidden="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -693,7 +708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30">
+    <row r="17" spans="1:6" ht="30" hidden="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -701,7 +716,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>28</v>
@@ -710,7 +725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="60">
+    <row r="18" spans="1:6" ht="60" hidden="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -730,7 +745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30">
+    <row r="19" spans="1:6" ht="30" hidden="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -755,10 +770,10 @@
         <v>29</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -772,9 +787,46 @@
         <v>30</v>
       </c>
     </row>
+    <row r="22" spans="1:6" ht="60">
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="75">
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30">
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30">
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:D21">
-    <filterColumn colId="2"/>
+  <autoFilter ref="A2:D23">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Plan/TO-DOs.xlsx
+++ b/Plan/TO-DOs.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$25</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Accommodate for option type and strike price along with symbol in option price capture component</t>
   </si>
@@ -150,6 +150,27 @@
   </si>
   <si>
     <t>Limit Buy order price to 75 % of high price</t>
+  </si>
+  <si>
+    <t>Once Data model is finalised, check where columns need to be made not null ( previously ignored because no data was available when column was added)</t>
+  </si>
+  <si>
+    <t>Done. Testing Pending</t>
+  </si>
+  <si>
+    <t>Patch written - Testing Pending. Multithreading remaining</t>
+  </si>
+  <si>
+    <t>Testing Done. Multithreading MAYBE not required</t>
+  </si>
+  <si>
+    <t>Testing Done.</t>
+  </si>
+  <si>
+    <t>Limited to 92.5 %</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -485,9 +506,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:F25"/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -582,7 +603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -787,44 +808,70 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="60">
+    <row r="22" spans="1:6" ht="60" hidden="1">
       <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="75">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="75" hidden="1">
       <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" hidden="1">
       <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" hidden="1">
       <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="90">
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D23">
+  <autoFilter ref="A2:D25">
     <filterColumn colId="2">
       <filters>
-        <filter val="1"/>
         <filter val="2"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Plan/TO-DOs.xlsx
+++ b/Plan/TO-DOs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>Accommodate for option type and strike price along with symbol in option price capture component</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Scrip based margin</t>
+  </si>
+  <si>
+    <t>After trade calculate and apply cumulative strength</t>
+  </si>
+  <si>
+    <t>Better management of trailing stop loss</t>
+  </si>
+  <si>
+    <t>strength threshold factor for negative trend.. Say 80%</t>
   </si>
 </sst>
 </file>
@@ -506,10 +518,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:F27"/>
+  <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15"/>
@@ -864,6 +876,41 @@
       </c>
       <c r="C27" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30">
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30">
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30">
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
